--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2954.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2954.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.185425266034855</v>
+        <v>0.4612464904785156</v>
       </c>
       <c r="B1">
-        <v>2.889690318235565</v>
+        <v>0.3770990669727325</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>3.732804775238037</v>
       </c>
       <c r="D1">
-        <v>2.115720760369989</v>
+        <v>3.466596841812134</v>
       </c>
       <c r="E1">
-        <v>1.217146619105144</v>
+        <v>0.9372816681861877</v>
       </c>
     </row>
   </sheetData>
